--- a/BLCL2O_0430/BLCL2O_0430.xlsx
+++ b/BLCL2O_0430/BLCL2O_0430.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hallgató\Desktop\TGgit\BLCL2O_OSGyak\BLCL2O_0430\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D3CF8-9F3F-4D32-8385-49B8075F6835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06627C9D-6DBF-4634-9CEA-8D3060BEFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E63C5D0-E560-4F04-9EF8-3907003BA6B3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2E63C5D0-E560-4F04-9EF8-3907003BA6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -400,15 +400,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -429,36 +423,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1767,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3163B016-7EE9-4EF1-8617-4F9366663F1D}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,54 +1771,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="K1" s="24" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="K1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AE1" s="24" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AE1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1835,22 +1827,22 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="D2" s="5">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="3">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>75</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1859,22 +1851,22 @@
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>30</v>
       </c>
-      <c r="N2" s="5">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="N2" s="3">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>75</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>45</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1907,22 +1899,22 @@
       <c r="AF2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="2">
         <v>30</v>
       </c>
-      <c r="AH2" s="5">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>15</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AH2" s="3">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="3">
         <v>25</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="3">
         <v>75</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="4">
         <v>45</v>
       </c>
     </row>
@@ -1933,47 +1925,47 @@
       <c r="B3" s="1">
         <v>40</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="8">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="6">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
         <v>25</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>45</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="22"/>
       <c r="K3" s="1">
         <v>39</v>
       </c>
       <c r="L3" s="1">
         <v>40</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>30</v>
       </c>
-      <c r="N3" s="8">
-        <v>35</v>
-      </c>
-      <c r="O3" s="8">
-        <v>15</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="N3" s="6">
+        <v>35</v>
+      </c>
+      <c r="O3" s="6">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
         <v>25</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <v>45</v>
       </c>
       <c r="U3" s="1">
@@ -1997,7 +1989,7 @@
       <c r="AA3" s="1">
         <v>75</v>
       </c>
-      <c r="AB3" s="44" t="s">
+      <c r="AB3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="AE3" s="1">
@@ -2006,22 +1998,22 @@
       <c r="AF3" s="1">
         <v>40</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="5">
         <v>30</v>
       </c>
-      <c r="AH3" s="8">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="8">
+      <c r="AH3" s="6">
+        <v>35</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="6">
         <v>25</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AK3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AL3" s="7">
         <v>45</v>
       </c>
     </row>
@@ -2032,47 +2024,47 @@
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>30</v>
       </c>
-      <c r="D4" s="11">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="9">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
         <v>25</v>
       </c>
-      <c r="G4" s="11">
-        <v>35</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="9">
+        <v>35</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="22"/>
       <c r="K4" s="1">
         <v>40</v>
       </c>
       <c r="L4" s="1">
         <v>40</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>30</v>
       </c>
-      <c r="N4" s="11">
-        <v>35</v>
-      </c>
-      <c r="O4" s="11">
-        <v>15</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="N4" s="9">
+        <v>35</v>
+      </c>
+      <c r="O4" s="9">
+        <v>15</v>
+      </c>
+      <c r="P4" s="9">
         <v>25</v>
       </c>
-      <c r="Q4" s="11">
-        <v>35</v>
-      </c>
-      <c r="R4" s="17" t="s">
+      <c r="Q4" s="9">
+        <v>35</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="U4" s="1">
@@ -2093,7 +2085,7 @@
       <c r="Z4" s="1">
         <v>25</v>
       </c>
-      <c r="AA4" s="44" t="s">
+      <c r="AA4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="AB4" s="1">
@@ -2105,112 +2097,110 @@
       <c r="AF4" s="1">
         <v>40</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="8">
         <v>30</v>
       </c>
-      <c r="AH4" s="11">
-        <v>35</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ4" s="11">
+      <c r="AH4" s="9">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="9">
         <v>25</v>
       </c>
-      <c r="AK4" s="11">
-        <v>35</v>
-      </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AK4" s="9">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>33</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>36</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>30</v>
       </c>
-      <c r="D5" s="20">
-        <v>35</v>
-      </c>
-      <c r="E5" s="20">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="D5" s="18">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18">
         <v>25</v>
       </c>
-      <c r="G5" s="20">
-        <v>35</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="18">
+        <v>35</v>
+      </c>
+      <c r="H5" s="19">
         <v>5</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="36">
+      <c r="K5" s="25">
         <v>33</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="25">
         <v>36</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="26">
         <v>30</v>
       </c>
-      <c r="N5" s="38">
-        <v>35</v>
-      </c>
-      <c r="O5" s="38">
-        <v>15</v>
-      </c>
-      <c r="P5" s="38">
+      <c r="N5" s="27">
+        <v>35</v>
+      </c>
+      <c r="O5" s="27">
+        <v>15</v>
+      </c>
+      <c r="P5" s="27">
         <v>25</v>
       </c>
-      <c r="Q5" s="38">
-        <v>35</v>
-      </c>
-      <c r="R5" s="39">
+      <c r="Q5" s="27">
+        <v>35</v>
+      </c>
+      <c r="R5" s="28">
         <v>5</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="16">
         <v>33</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="16">
         <v>36</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18">
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16">
         <v>5</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="16">
         <v>33</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="16">
         <v>36</v>
       </c>
-      <c r="AG5" s="19">
+      <c r="AG5" s="17">
         <v>30</v>
       </c>
-      <c r="AH5" s="20">
-        <v>35</v>
-      </c>
-      <c r="AI5" s="20">
-        <v>15</v>
-      </c>
-      <c r="AJ5" s="20">
+      <c r="AH5" s="18">
+        <v>35</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="18">
         <v>25</v>
       </c>
-      <c r="AK5" s="20">
-        <v>35</v>
-      </c>
-      <c r="AL5" s="21">
+      <c r="AK5" s="18">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="19">
         <v>5</v>
       </c>
     </row>
@@ -2221,47 +2211,47 @@
       <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="9">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
         <v>25</v>
       </c>
-      <c r="G6" s="11">
-        <v>35</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="9">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="22"/>
       <c r="K6" s="1">
         <v>20</v>
       </c>
       <c r="L6" s="1">
         <v>20</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11">
-        <v>35</v>
-      </c>
-      <c r="O6" s="11">
-        <v>15</v>
-      </c>
-      <c r="P6" s="11">
+      <c r="N6" s="9">
+        <v>35</v>
+      </c>
+      <c r="O6" s="9">
+        <v>15</v>
+      </c>
+      <c r="P6" s="9">
         <v>25</v>
       </c>
-      <c r="Q6" s="11">
-        <v>35</v>
-      </c>
-      <c r="R6" s="12">
+      <c r="Q6" s="9">
+        <v>35</v>
+      </c>
+      <c r="R6" s="10">
         <v>5</v>
       </c>
       <c r="U6" s="1">
@@ -2279,7 +2269,7 @@
       <c r="Y6" s="1">
         <v>15</v>
       </c>
-      <c r="Z6" s="44" t="s">
+      <c r="Z6" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA6" s="1">
@@ -2294,22 +2284,22 @@
       <c r="AF6" s="1">
         <v>20</v>
       </c>
-      <c r="AG6" s="27">
+      <c r="AG6" s="8">
         <v>30</v>
       </c>
-      <c r="AH6" s="45" t="s">
+      <c r="AH6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AI6" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="11">
+      <c r="AI6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="9">
         <v>25</v>
       </c>
-      <c r="AK6" s="11">
-        <v>35</v>
-      </c>
-      <c r="AL6" s="12">
+      <c r="AK6" s="9">
+        <v>35</v>
+      </c>
+      <c r="AL6" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2320,47 +2310,47 @@
       <c r="B7" s="1">
         <v>24</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E7" s="12">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12">
         <v>25</v>
       </c>
-      <c r="G7" s="14">
-        <v>35</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="12">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13">
         <v>5</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="22"/>
       <c r="K7" s="1">
         <v>21</v>
       </c>
       <c r="L7" s="1">
         <v>24</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>10</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="14">
-        <v>15</v>
-      </c>
-      <c r="P7" s="14">
+      <c r="O7" s="12">
+        <v>15</v>
+      </c>
+      <c r="P7" s="12">
         <v>25</v>
       </c>
-      <c r="Q7" s="14">
-        <v>35</v>
-      </c>
-      <c r="R7" s="15">
+      <c r="Q7" s="12">
+        <v>35</v>
+      </c>
+      <c r="R7" s="13">
         <v>5</v>
       </c>
       <c r="U7" s="1">
@@ -2369,7 +2359,7 @@
       <c r="V7" s="1">
         <v>24</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="31" t="s">
         <v>23</v>
       </c>
       <c r="X7" s="1">
@@ -2393,60 +2383,58 @@
       <c r="AF7" s="1">
         <v>24</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="11">
         <v>30</v>
       </c>
-      <c r="AH7" s="28">
-        <v>15</v>
-      </c>
-      <c r="AI7" s="14">
-        <v>15</v>
-      </c>
-      <c r="AJ7" s="14">
+      <c r="AH7" s="12">
+        <v>15</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="12">
         <v>25</v>
       </c>
-      <c r="AK7" s="23" t="s">
+      <c r="AK7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="15">
+      <c r="AL7" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33">
+      <c r="B9" s="38"/>
+      <c r="C9" s="23">
         <v>10</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="23">
         <v>11</v>
       </c>
-      <c r="E9" s="34">
-        <v>15</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="23">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23">
         <v>25</v>
       </c>
-      <c r="G9" s="34">
-        <v>35</v>
-      </c>
-      <c r="H9" s="35">
+      <c r="G9" s="23">
+        <v>35</v>
+      </c>
+      <c r="H9" s="24">
         <v>5</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="36"/>
       <c r="M9">
         <v>10</v>
       </c>
@@ -2465,10 +2453,10 @@
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="36"/>
       <c r="W9">
         <v>6</v>
       </c>
@@ -2487,10 +2475,10 @@
       <c r="AB9">
         <v>5</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="2"/>
+      <c r="AF9" s="36"/>
       <c r="AG9">
         <v>30</v>
       </c>
@@ -2511,76 +2499,70 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="36"/>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="s">
+      <c r="L10" s="36"/>
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="V10" s="36"/>
       <c r="Y10" t="s">
         <v>14</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
+      <c r="AF10" s="36"/>
       <c r="AI10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2"/>
+      <c r="K11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="36"/>
       <c r="O11">
         <v>20</v>
       </c>
       <c r="S11" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11" s="2"/>
+      <c r="U11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="36"/>
       <c r="Y11">
         <v>20</v>
       </c>
       <c r="AC11" t="s">
         <v>16</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF11" s="2"/>
+      <c r="AE11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="36"/>
       <c r="AI11">
         <v>20</v>
       </c>
@@ -2589,144 +2571,144 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="40">
+      <c r="B12" s="35"/>
+      <c r="C12" s="29">
         <f>MOD(C9,4)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="29">
         <f t="shared" ref="D12:H12" si="0">MOD(D9,4)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="29">
         <f>SUM(C12:H12)</f>
         <v>13</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="40">
+      <c r="L12" s="35"/>
+      <c r="M12" s="29">
         <f>MOD(M9,4)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="29">
         <f t="shared" ref="N12:R12" si="1">MOD(N9,4)</f>
         <v>3</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="29">
         <f>SUM(M12:R12)</f>
         <v>13</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="40">
+      <c r="V12" s="35"/>
+      <c r="W12" s="29">
         <f>MOD(W9,4)</f>
         <v>2</v>
       </c>
-      <c r="X12" s="40">
+      <c r="X12" s="29">
         <f t="shared" ref="X12:AB12" si="2">MOD(X9,4)</f>
         <v>3</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC12" s="41">
+      <c r="AC12" s="29">
         <f>SUM(W12:AB12)</f>
         <v>13</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AE12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="40">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="29">
         <f>MOD(AG9,4)</f>
         <v>2</v>
       </c>
-      <c r="AH12" s="40">
+      <c r="AH12" s="29">
         <f t="shared" ref="AH12:AL12" si="3">MOD(AH9,4)</f>
         <v>3</v>
       </c>
-      <c r="AI12" s="40">
+      <c r="AI12" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AJ12" s="40">
+      <c r="AJ12" s="29">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AL12" s="40">
+      <c r="AL12" s="29">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AM12" s="41">
+      <c r="AM12" s="29">
         <f>SUM(AG12:AL12)</f>
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="42">
+      <c r="B13" s="35"/>
+      <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" s="1">
@@ -2745,14 +2727,14 @@
         <f>SUM(C13:H13)</f>
         <v>41</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="42">
+      <c r="L13" s="35"/>
+      <c r="M13" s="1">
         <v>10</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="1">
         <v>11</v>
       </c>
       <c r="O13" s="1">
@@ -2771,14 +2753,14 @@
         <f>SUM(M13:R13)</f>
         <v>41</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="42">
+      <c r="V13" s="35"/>
+      <c r="W13" s="1">
         <v>6</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
@@ -2797,14 +2779,14 @@
         <f>SUM(W13:AB13)</f>
         <v>30</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AE13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="42">
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="1">
         <v>0</v>
       </c>
-      <c r="AH13" s="42">
+      <c r="AH13" s="1">
         <v>15</v>
       </c>
       <c r="AI13" s="1">
@@ -2825,11 +2807,11 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="42">
+      <c r="B14" s="35"/>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1"/>
@@ -2838,11 +2820,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="42">
+      <c r="L14" s="35"/>
+      <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1"/>
@@ -2851,11 +2833,11 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="42">
+      <c r="V14" s="35"/>
+      <c r="W14" s="1">
         <v>1</v>
       </c>
       <c r="X14" s="1"/>
@@ -2864,11 +2846,11 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="42"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -2923,7 +2905,7 @@
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2939,7 +2921,7 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="18">
+      <c r="M16" s="16">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -2955,7 +2937,7 @@
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="18">
+      <c r="W16" s="16">
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -2971,7 +2953,7 @@
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="26"/>
+      <c r="AG16" s="1"/>
       <c r="AH16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3021,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="41">
+      <c r="I18" s="29">
         <f>SUM(I12:I17)</f>
         <v>58</v>
       </c>
@@ -3053,7 +3035,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="41">
+      <c r="S18" s="29">
         <f>SUM(S12:S17)</f>
         <v>58</v>
       </c>
@@ -3067,7 +3049,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="41">
+      <c r="AC18" s="29">
         <f>SUM(AC12:AC17)</f>
         <v>47</v>
       </c>
@@ -3079,7 +3061,7 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="41">
+      <c r="AM18" s="29">
         <f>SUM(AM12:AM17)</f>
         <v>59</v>
       </c>
@@ -3126,7 +3108,7 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="30">
         <f>I18/SUM(C2:H2)</f>
         <v>0.25777777777777777</v>
       </c>
@@ -3140,7 +3122,7 @@
       <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="30">
         <f>S18/SUM(M2:R2)</f>
         <v>0.25777777777777777</v>
       </c>
@@ -3154,7 +3136,7 @@
       <c r="U20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="30">
         <f>AC18/SUM(W2:AB2)</f>
         <v>0.2088888888888889</v>
       </c>
@@ -3168,7 +3150,7 @@
       <c r="AE20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF20" s="43">
+      <c r="AF20" s="30">
         <f>AM18/SUM(AG2:AL2)</f>
         <v>0.26222222222222225</v>
       </c>
@@ -3195,15 +3177,39 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="33">
         <v>0.25778000000000001</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="AE9:AF9"/>
@@ -3212,31 +3218,7 @@
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
     <mergeCell ref="U12:V12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
